--- a/employee.xlsx
+++ b/employee.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
-  <si>
-    <t>obs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>gender</t>
   </si>
@@ -396,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,277 +409,244 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>32720</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>32720</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E2">
+        <v>223700</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(0,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>33907</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F2">
-        <v>223700</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f ca="1">RANDBETWEEN(0,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D3">
+        <v>6.7</v>
+      </c>
+      <c r="E3">
+        <v>121100</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" ca="1" si="0">RANDBETWEEN(0,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>33907</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>6.7</v>
-      </c>
-      <c r="F3">
-        <v>121100</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" ca="1" si="0">RANDBETWEEN(0,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" s="1">
+        <v>32037</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="D5">
+        <v>1.7</v>
+      </c>
+      <c r="E5">
+        <v>79900</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>33993</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>3.6</v>
+      </c>
+      <c r="E6">
+        <v>32800</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>32037</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1.8</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>34603</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>5.6</v>
+      </c>
+      <c r="E8">
+        <v>272500</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>33365</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E9">
+        <v>41600</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>34672</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>1.7</v>
-      </c>
-      <c r="F5">
-        <v>79900</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>33993</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>3.6</v>
-      </c>
-      <c r="F6">
-        <v>32800</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="D10">
+        <v>3.3</v>
+      </c>
+      <c r="E10">
+        <v>141300</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>1.8</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>34603</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>5.6</v>
-      </c>
-      <c r="F8">
-        <v>272500</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>33365</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B11" s="1">
+        <v>31968</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F9">
-        <v>41600</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>34672</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>3.3</v>
-      </c>
-      <c r="F10">
-        <v>141300</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>31968</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
+      <c r="D11">
+        <v>6.5</v>
       </c>
       <c r="E11">
-        <v>6.5</v>
-      </c>
-      <c r="F11">
         <v>68000</v>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
